--- a/examples/sources/data/unsolved/to_schedule/2018-12-19.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-19.xlsx
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="N161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O161" s="2">
         <v>43453</v>
